--- a/lokaty,kredyty.xlsx
+++ b/lokaty,kredyty.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="lokaty" sheetId="1" r:id="rId1"/>
+    <sheet name="kredyty" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,101 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
+  <si>
+    <t>nr raty</t>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n-1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Z</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <t>Suma</t>
+  </si>
+  <si>
+    <t>XXXXX</t>
+  </si>
   <si>
     <t>Dane:</t>
   </si>
@@ -171,17 +266,50 @@
   <si>
     <t>log 47/30=log (1,0162)4t</t>
   </si>
+  <si>
+    <t>q=</t>
+  </si>
+  <si>
+    <t>N=</t>
+  </si>
+  <si>
+    <t>A=</t>
+  </si>
+  <si>
+    <t>T=</t>
+  </si>
+  <si>
+    <t>Zn=r*Sn-1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
     <numFmt numFmtId="174" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -207,7 +335,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -215,18 +343,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Walutowy" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -311,6 +462,125 @@
         <a:xfrm>
           <a:off x="0" y="5143500"/>
           <a:ext cx="6020640" cy="981212"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>391364</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85870</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obraz 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6011114" cy="1038370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638378</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114369</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Obraz 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3333750" y="3467100"/>
+          <a:ext cx="1457528" cy="495369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>296101</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152554</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Obraz 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4610100"/>
+          <a:ext cx="5915851" cy="1105054"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -587,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,26 +870,26 @@
   <sheetData>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>0.06</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>5000</v>
@@ -627,7 +897,7 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <f>C7/12</f>
@@ -636,7 +906,7 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>12</v>
@@ -644,7 +914,7 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -652,14 +922,14 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1">
         <f>FV(C10,C12*C11,,-C8)</f>
         <v>5635.7988810269389</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F14">
         <f>C10*(1-0.19)</f>
@@ -668,7 +938,7 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F16" s="1">
         <f>FV(F14,C12*C11,,-C8)</f>
@@ -677,36 +947,36 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C35">
         <v>3000</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H35">
         <v>6</v>
@@ -714,13 +984,13 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C36">
         <v>0.08</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H36">
         <v>28</v>
@@ -728,7 +998,7 @@
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C37">
         <f>C36/4</f>
@@ -737,7 +1007,7 @@
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -745,7 +1015,7 @@
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C39">
         <f>C37*(1-0.19)</f>
@@ -754,14 +1024,14 @@
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C41" s="3">
         <f>H36/H35</f>
         <v>4.666666666666667</v>
       </c>
       <c r="D41" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E41">
         <v>4.7</v>
@@ -769,7 +1039,7 @@
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -777,7 +1047,7 @@
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C43" s="2">
         <f>NPER(C39,,-C42,E41)</f>
@@ -786,57 +1056,57 @@
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C44" s="2">
         <f>C43/4</f>
         <v>6.9842126082170077</v>
       </c>
       <c r="D44" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B54" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -844,4 +1114,493 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B8:Q41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="2:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="B8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>120000</v>
+      </c>
+      <c r="D9" s="5">
+        <f>$C$19</f>
+        <v>46354.694485842017</v>
+      </c>
+      <c r="E9" s="5">
+        <f>D9-F9</f>
+        <v>22354.694485842017</v>
+      </c>
+      <c r="F9" s="5">
+        <f>C9*$C$15</f>
+        <v>24000</v>
+      </c>
+      <c r="G9" s="5">
+        <f>C9-E9</f>
+        <v>97645.305514157983</v>
+      </c>
+      <c r="L9" s="4">
+        <v>1</v>
+      </c>
+      <c r="M9" s="5">
+        <v>120000</v>
+      </c>
+      <c r="N9" s="6">
+        <f>PMT($C$15,$C$17,-$M$9)</f>
+        <v>46354.694485842039</v>
+      </c>
+      <c r="O9" s="1">
+        <f>PPMT($C$15,L9,$C$17,-M9)</f>
+        <v>22354.694485842032</v>
+      </c>
+      <c r="P9" s="6">
+        <f>IPMT($C$15,L9,$C$17,-$M$9)</f>
+        <v>24000</v>
+      </c>
+      <c r="Q9" s="5">
+        <f>M9-O9</f>
+        <v>97645.305514157968</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
+        <f>G9</f>
+        <v>97645.305514157983</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" ref="D10:D12" si="0">$C$19</f>
+        <v>46354.694485842017</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" ref="E10:E12" si="1">D10-F10</f>
+        <v>26825.633383010419</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" ref="F10:F12" si="2">C10*$C$15</f>
+        <v>19529.061102831598</v>
+      </c>
+      <c r="G10" s="5">
+        <f>C10-E10</f>
+        <v>70819.672131147556</v>
+      </c>
+      <c r="L10" s="4">
+        <v>2</v>
+      </c>
+      <c r="M10" s="5">
+        <f>Q9</f>
+        <v>97645.305514157968</v>
+      </c>
+      <c r="N10" s="6">
+        <f t="shared" ref="N10:N12" si="3">PMT($C$15,$C$17,-$M$9)</f>
+        <v>46354.694485842039</v>
+      </c>
+      <c r="O10" s="1">
+        <f>PPMT($C$15,L10,$C$17,-$M$9)</f>
+        <v>26825.633383010441</v>
+      </c>
+      <c r="P10" s="6">
+        <f t="shared" ref="P10:P12" si="4">IPMT($C$15,L10,$C$17,-$M$9)</f>
+        <v>19529.061102831598</v>
+      </c>
+      <c r="Q10" s="5">
+        <f t="shared" ref="Q10:Q12" si="5">M10-O10</f>
+        <v>70819.672131147527</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5">
+        <f t="shared" ref="C11:C12" si="6">G10</f>
+        <v>70819.672131147556</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>46354.694485842017</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="1"/>
+        <v>32190.760059612505</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="2"/>
+        <v>14163.934426229513</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" ref="G10:G11" si="7">C11-E11</f>
+        <v>38628.912071535051</v>
+      </c>
+      <c r="L11" s="4">
+        <v>3</v>
+      </c>
+      <c r="M11" s="5">
+        <f>Q10</f>
+        <v>70819.672131147527</v>
+      </c>
+      <c r="N11" s="6">
+        <f t="shared" si="3"/>
+        <v>46354.694485842039</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" ref="O11:O12" si="8">PPMT($C$15,L11,$C$17,-$M$9)</f>
+        <v>32190.760059612527</v>
+      </c>
+      <c r="P11" s="6">
+        <f t="shared" si="4"/>
+        <v>14163.934426229509</v>
+      </c>
+      <c r="Q11" s="5">
+        <f t="shared" si="5"/>
+        <v>38628.912071535</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>4</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" si="6"/>
+        <v>38628.912071535051</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>46354.694485842017</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="1"/>
+        <v>38628.912071535007</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="2"/>
+        <v>7725.7824143070102</v>
+      </c>
+      <c r="G12" s="5">
+        <f>C12-E12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>4</v>
+      </c>
+      <c r="M12" s="5">
+        <f>Q11</f>
+        <v>38628.912071535</v>
+      </c>
+      <c r="N12" s="6">
+        <f t="shared" si="3"/>
+        <v>46354.694485842039</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="8"/>
+        <v>38628.912071535036</v>
+      </c>
+      <c r="P12" s="6">
+        <f t="shared" si="4"/>
+        <v>7725.7824143070065</v>
+      </c>
+      <c r="Q12" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="5">
+        <f>SUM(D9:D12)</f>
+        <v>185418.77794336807</v>
+      </c>
+      <c r="E13" s="5">
+        <f>SUM(E9:E12)</f>
+        <v>119999.99999999994</v>
+      </c>
+      <c r="F13" s="5">
+        <f>SUM(F9:F12)</f>
+        <v>65418.777943368121</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" s="5">
+        <f>SUM(N9:N12)</f>
+        <v>185418.77794336816</v>
+      </c>
+      <c r="O13" s="6">
+        <f>SUM(O9:O12)</f>
+        <v>120000.00000000003</v>
+      </c>
+      <c r="P13" s="6">
+        <f>SUM(P9:P12)</f>
+        <v>65418.777943368113</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16">
+        <f>1+C15</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="2">
+        <f>C9*C16^C17*((C16-1)/(C16^C17-1))</f>
+        <v>46354.694485842017</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="B32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="4">
+        <v>1</v>
+      </c>
+      <c r="C33" s="7">
+        <v>30</v>
+      </c>
+      <c r="D33" s="7">
+        <v>14.5</v>
+      </c>
+      <c r="E33" s="7">
+        <v>10</v>
+      </c>
+      <c r="F33" s="7">
+        <f>D33-E33</f>
+        <v>4.5</v>
+      </c>
+      <c r="G33" s="7">
+        <f>C33-E33</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="4">
+        <v>2</v>
+      </c>
+      <c r="C34" s="7">
+        <v>20</v>
+      </c>
+      <c r="D34" s="7">
+        <f>E34+F34</f>
+        <v>13</v>
+      </c>
+      <c r="E34" s="7">
+        <v>10</v>
+      </c>
+      <c r="F34" s="7">
+        <f>C34*$C$41</f>
+        <v>3</v>
+      </c>
+      <c r="G34" s="7">
+        <f t="shared" ref="G34:G35" si="9">C34-E34</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="4">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
+        <v>10</v>
+      </c>
+      <c r="D35" s="7">
+        <f>E35+F35</f>
+        <v>11.5</v>
+      </c>
+      <c r="E35" s="7">
+        <v>10</v>
+      </c>
+      <c r="F35" s="7">
+        <f>C35*$C$41</f>
+        <v>1.5</v>
+      </c>
+      <c r="G35" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="7">
+        <f>SUM(D33:D35)</f>
+        <v>39</v>
+      </c>
+      <c r="E36" s="7">
+        <f>SUM(E33:E35)</f>
+        <v>30</v>
+      </c>
+      <c r="F36" s="7">
+        <f>SUM(F33:F35)</f>
+        <v>9</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="9">
+        <v>3</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="9">
+        <f>C33/B35</f>
+        <v>10</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <f>F33/C33</f>
+        <v>0.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>